--- a/HvilleHappyHours.xlsx
+++ b/HvilleHappyHours.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominique Regalado\Dropbox\SWEng\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22635" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
   <si>
     <t>HAPPY HOUR LIST</t>
   </si>
@@ -128,9 +123,6 @@
     </r>
   </si>
   <si>
-    <t>11AM-4PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALL DAY </t>
   </si>
   <si>
@@ -206,9 +198,6 @@
   </si>
   <si>
     <t>Sun-Thurs 11AM-9PM       Fri-Sat 11AM-10PM</t>
-  </si>
-  <si>
-    <t>El Gordo Taqueria</t>
   </si>
   <si>
     <t>Buffalo Wild Wings</t>
@@ -494,7 +483,118 @@
     <t xml:space="preserve">Margarita's </t>
   </si>
   <si>
-    <t xml:space="preserve">Zach's Bar and Grill </t>
+    <t>Sun 11AM-12AM           Mon-Thur 11AM-1AM      Fri-Sat 11AM-2AM</t>
+  </si>
+  <si>
+    <t>3PM-6PM 9PM-Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3PM-9PM                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3PM-10PM                          </t>
+  </si>
+  <si>
+    <t>1PM-7PM</t>
+  </si>
+  <si>
+    <t>Varies Everyday based on excess</t>
+  </si>
+  <si>
+    <t>Zach's Bar and Grill     (936)295-0938       2707 Sam Houston Ave,           Huntsville, TX 77340</t>
+  </si>
+  <si>
+    <t>ALL Day                                        $4.75 Big Beers                     $4.25 Frozen Margaritas,   Purple Hooters                          $9 Buckets of 4 cans</t>
+  </si>
+  <si>
+    <t>ALL Day                                        $2.25 Cans                                $9 Buckets of 4 cans</t>
+  </si>
+  <si>
+    <t>ALL Day                                        $3 Dos Equis, Corona                                $9 Buckets of 4 cans</t>
+  </si>
+  <si>
+    <t>ALL DAY                               $3.25 Bloody Mary, Ice Picks</t>
+  </si>
+  <si>
+    <t>**Food Varies Daily</t>
+  </si>
+  <si>
+    <t>Sun-Thur 11AM-12AM          Fri-Sat 11AM-2AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3PM-6PM 9PM-1AM                  -$1.50 </t>
+  </si>
+  <si>
+    <t>3PM-6PM 9PM-1AM</t>
+  </si>
+  <si>
+    <t>2PM-7PM                             $3.50 12oz Mango &amp; Strawberry Margarita</t>
+  </si>
+  <si>
+    <t>2PM-7PM                                  $3 Lg Draft Bud light,               Miller light                                       $3.50 Michelob Ultra,            Dos Equis</t>
+  </si>
+  <si>
+    <t>2PM-7PM                                      $2.50 12oz House Margarita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2PM-7PM                                        $5.00 14oz Bandera Margarita, American Flag                                    $3.50 12oz Strawberry, Mango, Banana, Peach </t>
+  </si>
+  <si>
+    <t>2PM-7PM                                     $6 Lg Mango, Strawberry, Banana, Peach Margaritas</t>
+  </si>
+  <si>
+    <t>Sun-Thur 11AM-10PM          Fri-Sat 11AM-11PM</t>
+  </si>
+  <si>
+    <t>$6 Pitcher of Miller Lite,                     Tecate Light, Bud Light                                   **Specials Subject To Change**</t>
+  </si>
+  <si>
+    <t>Sun 7AM-3PM                             Mon-Fri 6AM-3PM                 Sat 7AM-3PM</t>
+  </si>
+  <si>
+    <t>ALL DAY                                    $3 Select Shots</t>
+  </si>
+  <si>
+    <t>3PM-7PM                                  $3 Corona, Dos Equis                           $4 Top Shelf Tequila          (Milagro, Altos, Cuervo)                $4 16oz Blue Lagoon,               Golden Fox on the Rocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3PM-7PM                                $10 Domestic Buckets                               $3 (Premium Whiskeys) Jack Daniels Old No. 7, Fire, Honey                                          </t>
+  </si>
+  <si>
+    <t>3PM-7PM                             $3.50 SKYY All Flavors               $4 Bombs                         (Vegas, Tuca, Cherry, Jager)</t>
+  </si>
+  <si>
+    <t>3PM-7PM                               $3.50 Texas Beer (Draft &amp; Bottle), Texas Liquors               All Deep Eddy's Favors                           Zodiac, Titos, Rebecca Creek</t>
+  </si>
+  <si>
+    <t>ALL DAY                                    $6 Domestic Pitchers                             $4 Crown &amp; Orange Crushes              $3.75 All Import Drafts                      $2.75 Fireball</t>
+  </si>
+  <si>
+    <t>Sun- Sat 11AM-12AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL DAY                                    $4 Breakfast Shots, Bloody Mary's Orange Crushes                     $3 Select Shots                                         $10 Domestic Buckets                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3PM-7PM Mon-Fri                      $2 Domestic Drafts, Wells                                                                  $10 Domestic Pitchers                  $3.75 Select Texas Premium Liquors     (Titos, Rebecca Creek, Reg &amp; Black Cherry Zodiac Vodka, All Deep Eddy's Flavors)                  </t>
+  </si>
+  <si>
+    <t>Sun-Thur 11AM-10PM          Fri-Sat 11AM-10:30PM</t>
+  </si>
+  <si>
+    <t>Tue-Sat 8PM-2AM</t>
+  </si>
+  <si>
+    <t>Sun 11AM-4PM                        Mon-Thur 11AM-9AM                 Fri-Sat    11AM-10PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.50 OFF                                          All Tall &amp; Pint Draft Beer, Wine by the Glass,  Mixed Drinks (Jack Daniel's, Captain Morgan, Absolut),                 House Margarita                                 </t>
+  </si>
+  <si>
+    <t>Sun-Thur 8PM-2AM                           Fri-Sat 7PM-2AM</t>
+  </si>
+  <si>
+    <t>$3 sm Margarita                               $5 lg Margarita                                 $2 Domestic Beer                             $3 Imported Beer                                  **Call to Confirm**</t>
   </si>
 </sst>
 </file>
@@ -654,11 +754,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -705,6 +802,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -772,7 +881,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,7 +916,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -984,7 +1093,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -992,466 +1101,579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="6" customWidth="1"/>
-    <col min="2" max="8" width="26.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="31" style="11" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="5" customWidth="1"/>
+    <col min="2" max="6" width="26.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31" style="10" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="J8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="J12" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="B17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="J18" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="J19" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1464,5 +1686,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HvilleHappyHours.xlsx
+++ b/HvilleHappyHours.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
   <si>
     <t>HAPPY HOUR LIST</t>
   </si>
@@ -595,6 +595,30 @@
   </si>
   <si>
     <t>$3 sm Margarita                               $5 lg Margarita                                 $2 Domestic Beer                             $3 Imported Beer                                  **Call to Confirm**</t>
+  </si>
+  <si>
+    <t>ALL NIGHT                                $0.25 Wells and Draft</t>
+  </si>
+  <si>
+    <t>ALL NIGHT                                          $1.50 Wells/Domestic Longnecks                                               $250 You-Call-Its</t>
+  </si>
+  <si>
+    <t>ALL NIGHT                          $1.75 Domestic Longnecks                                                     8PM-11PM                               $0.50 Wells/Drafts</t>
+  </si>
+  <si>
+    <t>8PM-11PM                             $1.00 Wells/Dom Longnecks                                           $3.00 You-Call-Its</t>
+  </si>
+  <si>
+    <t>ALL NIGHT                                 $1.00 Wells/Drafts                           $1.50 Dom longnecks</t>
+  </si>
+  <si>
+    <t>ALL NIGHT                                First Drink reg price,              2nd Drink $3 OFF                          (as low as $1)                                          $3.75 Shots</t>
+  </si>
+  <si>
+    <t>**Special Vary on Events**</t>
+  </si>
+  <si>
+    <t>**Specials Vary Daily**                                                               **Check Twitter for Updates**</t>
   </si>
 </sst>
 </file>
@@ -803,17 +827,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1093,7 +1117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1104,13 +1128,15 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="5" customWidth="1"/>
-    <col min="2" max="6" width="26.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="26.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="31" style="10" customWidth="1"/>
@@ -1118,30 +1144,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -1345,7 +1371,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1372,23 +1398,33 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="J12" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="13"/>
@@ -1447,8 +1483,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:10" s="20" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -1529,17 +1565,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
+      <c r="I18" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="J18" s="3" t="s">
         <v>97</v>
       </c>
@@ -1551,16 +1592,21 @@
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
+      <c r="I19" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="J19" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="13"/>
@@ -1590,7 +1636,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -1622,7 +1668,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="13"/>

--- a/HvilleHappyHours.xlsx
+++ b/HvilleHappyHours.xlsx
@@ -200,9 +200,6 @@
     <t>Sun-Thurs 11AM-9PM       Fri-Sat 11AM-10PM</t>
   </si>
   <si>
-    <t>Buffalo Wild Wings</t>
-  </si>
-  <si>
     <t xml:space="preserve">$2.00 Drafts || $4.50 Ziegenbock Pitchers </t>
   </si>
   <si>
@@ -419,21 +416,6 @@
     <t>Sun-Tues 11AM-11PM Weds-Sat 11AM- 12AM</t>
   </si>
   <si>
-    <t xml:space="preserve">Los Pericos        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shenanigans     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbonero Rotisserie    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Humphrey's     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toasted      </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -443,6 +425,191 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Time Out Karaoke</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Sun 11AM-12AM           Mon-Thur 11AM-1AM      Fri-Sat 11AM-2AM</t>
+  </si>
+  <si>
+    <t>3PM-6PM 9PM-Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3PM-9PM                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3PM-10PM                          </t>
+  </si>
+  <si>
+    <t>1PM-7PM</t>
+  </si>
+  <si>
+    <t>Varies Everyday based on excess</t>
+  </si>
+  <si>
+    <t>ALL Day                                        $4.75 Big Beers                     $4.25 Frozen Margaritas,   Purple Hooters                          $9 Buckets of 4 cans</t>
+  </si>
+  <si>
+    <t>ALL Day                                        $2.25 Cans                                $9 Buckets of 4 cans</t>
+  </si>
+  <si>
+    <t>ALL Day                                        $3 Dos Equis, Corona                                $9 Buckets of 4 cans</t>
+  </si>
+  <si>
+    <t>ALL DAY                               $3.25 Bloody Mary, Ice Picks</t>
+  </si>
+  <si>
+    <t>**Food Varies Daily</t>
+  </si>
+  <si>
+    <t>Sun-Thur 11AM-12AM          Fri-Sat 11AM-2AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3PM-6PM 9PM-1AM                  -$1.50 </t>
+  </si>
+  <si>
+    <t>3PM-6PM 9PM-1AM</t>
+  </si>
+  <si>
+    <t>2PM-7PM                             $3.50 12oz Mango &amp; Strawberry Margarita</t>
+  </si>
+  <si>
+    <t>2PM-7PM                                  $3 Lg Draft Bud light,               Miller light                                       $3.50 Michelob Ultra,            Dos Equis</t>
+  </si>
+  <si>
+    <t>2PM-7PM                                      $2.50 12oz House Margarita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2PM-7PM                                        $5.00 14oz Bandera Margarita, American Flag                                    $3.50 12oz Strawberry, Mango, Banana, Peach </t>
+  </si>
+  <si>
+    <t>2PM-7PM                                     $6 Lg Mango, Strawberry, Banana, Peach Margaritas</t>
+  </si>
+  <si>
+    <t>Sun-Thur 11AM-10PM          Fri-Sat 11AM-11PM</t>
+  </si>
+  <si>
+    <t>$6 Pitcher of Miller Lite,                     Tecate Light, Bud Light                                   **Specials Subject To Change**</t>
+  </si>
+  <si>
+    <t>Sun 7AM-3PM                             Mon-Fri 6AM-3PM                 Sat 7AM-3PM</t>
+  </si>
+  <si>
+    <t>ALL DAY                                    $3 Select Shots</t>
+  </si>
+  <si>
+    <t>3PM-7PM                                  $3 Corona, Dos Equis                           $4 Top Shelf Tequila          (Milagro, Altos, Cuervo)                $4 16oz Blue Lagoon,               Golden Fox on the Rocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3PM-7PM                                $10 Domestic Buckets                               $3 (Premium Whiskeys) Jack Daniels Old No. 7, Fire, Honey                                          </t>
+  </si>
+  <si>
+    <t>3PM-7PM                             $3.50 SKYY All Flavors               $4 Bombs                         (Vegas, Tuca, Cherry, Jager)</t>
+  </si>
+  <si>
+    <t>3PM-7PM                               $3.50 Texas Beer (Draft &amp; Bottle), Texas Liquors               All Deep Eddy's Favors                           Zodiac, Titos, Rebecca Creek</t>
+  </si>
+  <si>
+    <t>ALL DAY                                    $6 Domestic Pitchers                             $4 Crown &amp; Orange Crushes              $3.75 All Import Drafts                      $2.75 Fireball</t>
+  </si>
+  <si>
+    <t>Sun- Sat 11AM-12AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL DAY                                    $4 Breakfast Shots, Bloody Mary's Orange Crushes                     $3 Select Shots                                         $10 Domestic Buckets                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3PM-7PM Mon-Fri                      $2 Domestic Drafts, Wells                                                                  $10 Domestic Pitchers                  $3.75 Select Texas Premium Liquors     (Titos, Rebecca Creek, Reg &amp; Black Cherry Zodiac Vodka, All Deep Eddy's Flavors)                  </t>
+  </si>
+  <si>
+    <t>Sun-Thur 11AM-10PM          Fri-Sat 11AM-10:30PM</t>
+  </si>
+  <si>
+    <t>Tue-Sat 8PM-2AM</t>
+  </si>
+  <si>
+    <t>Sun 11AM-4PM                        Mon-Thur 11AM-9AM                 Fri-Sat    11AM-10PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.50 OFF                                          All Tall &amp; Pint Draft Beer, Wine by the Glass,  Mixed Drinks (Jack Daniel's, Captain Morgan, Absolut),                 House Margarita                                 </t>
+  </si>
+  <si>
+    <t>Sun-Thur 8PM-2AM                           Fri-Sat 7PM-2AM</t>
+  </si>
+  <si>
+    <t>$3 sm Margarita                               $5 lg Margarita                                 $2 Domestic Beer                             $3 Imported Beer                                  **Call to Confirm**</t>
+  </si>
+  <si>
+    <t>ALL NIGHT                                $0.25 Wells and Draft</t>
+  </si>
+  <si>
+    <t>ALL NIGHT                                          $1.50 Wells/Domestic Longnecks                                               $250 You-Call-Its</t>
+  </si>
+  <si>
+    <t>ALL NIGHT                          $1.75 Domestic Longnecks                                                     8PM-11PM                               $0.50 Wells/Drafts</t>
+  </si>
+  <si>
+    <t>8PM-11PM                             $1.00 Wells/Dom Longnecks                                           $3.00 You-Call-Its</t>
+  </si>
+  <si>
+    <t>ALL NIGHT                                 $1.00 Wells/Drafts                           $1.50 Dom longnecks</t>
+  </si>
+  <si>
+    <t>ALL NIGHT                                First Drink reg price,              2nd Drink $3 OFF                          (as low as $1)                                          $3.75 Shots</t>
+  </si>
+  <si>
+    <t>**Special Vary on Events**</t>
+  </si>
+  <si>
+    <t>**Specials Vary Daily**                                                               **Check Twitter for Updates**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toasted                  1932 Sam Houston          Ave, Huntsvile, TX 77340    </t>
+  </si>
+  <si>
+    <t>Humphrey's                   1930 Sam Houston Ave, Huntsville, TX 77340</t>
+  </si>
+  <si>
+    <t>Zach's Bar and Grill     (936)295-0938       2707 Sam Houston Ave,Huntsville, TX 77340</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Buffalo Wild Wings           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(936) 291-0390        203 I-45, Huntsville, TX 77340</t>
+    </r>
+  </si>
+  <si>
+    <t>Margarita's                  (936) 293-8966        630 N Fwy Service Rd,   Huntsville TX 77340</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Jolly Fox Club</t>
     </r>
     <r>
@@ -453,10 +620,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">                      (936) 293-1411       2504 Sam Houston Ave,    Huntsville, TX 77340</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Los Pericos  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -466,159 +646,59 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Time Out Karaoke</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Margarita's </t>
-  </si>
-  <si>
-    <t>Sun 11AM-12AM           Mon-Thur 11AM-1AM      Fri-Sat 11AM-2AM</t>
-  </si>
-  <si>
-    <t>3PM-6PM 9PM-Close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3PM-9PM                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3PM-10PM                          </t>
-  </si>
-  <si>
-    <t>1PM-7PM</t>
-  </si>
-  <si>
-    <t>Varies Everyday based on excess</t>
-  </si>
-  <si>
-    <t>Zach's Bar and Grill     (936)295-0938       2707 Sam Houston Ave,           Huntsville, TX 77340</t>
-  </si>
-  <si>
-    <t>ALL Day                                        $4.75 Big Beers                     $4.25 Frozen Margaritas,   Purple Hooters                          $9 Buckets of 4 cans</t>
-  </si>
-  <si>
-    <t>ALL Day                                        $2.25 Cans                                $9 Buckets of 4 cans</t>
-  </si>
-  <si>
-    <t>ALL Day                                        $3 Dos Equis, Corona                                $9 Buckets of 4 cans</t>
-  </si>
-  <si>
-    <t>ALL DAY                               $3.25 Bloody Mary, Ice Picks</t>
-  </si>
-  <si>
-    <t>**Food Varies Daily</t>
-  </si>
-  <si>
-    <t>Sun-Thur 11AM-12AM          Fri-Sat 11AM-2AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3PM-6PM 9PM-1AM                  -$1.50 </t>
-  </si>
-  <si>
-    <t>3PM-6PM 9PM-1AM</t>
-  </si>
-  <si>
-    <t>2PM-7PM                             $3.50 12oz Mango &amp; Strawberry Margarita</t>
-  </si>
-  <si>
-    <t>2PM-7PM                                  $3 Lg Draft Bud light,               Miller light                                       $3.50 Michelob Ultra,            Dos Equis</t>
-  </si>
-  <si>
-    <t>2PM-7PM                                      $2.50 12oz House Margarita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2PM-7PM                                        $5.00 14oz Bandera Margarita, American Flag                                    $3.50 12oz Strawberry, Mango, Banana, Peach </t>
-  </si>
-  <si>
-    <t>2PM-7PM                                     $6 Lg Mango, Strawberry, Banana, Peach Margaritas</t>
-  </si>
-  <si>
-    <t>Sun-Thur 11AM-10PM          Fri-Sat 11AM-11PM</t>
-  </si>
-  <si>
-    <t>$6 Pitcher of Miller Lite,                     Tecate Light, Bud Light                                   **Specials Subject To Change**</t>
-  </si>
-  <si>
-    <t>Sun 7AM-3PM                             Mon-Fri 6AM-3PM                 Sat 7AM-3PM</t>
-  </si>
-  <si>
-    <t>ALL DAY                                    $3 Select Shots</t>
-  </si>
-  <si>
-    <t>3PM-7PM                                  $3 Corona, Dos Equis                           $4 Top Shelf Tequila          (Milagro, Altos, Cuervo)                $4 16oz Blue Lagoon,               Golden Fox on the Rocks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3PM-7PM                                $10 Domestic Buckets                               $3 (Premium Whiskeys) Jack Daniels Old No. 7, Fire, Honey                                          </t>
-  </si>
-  <si>
-    <t>3PM-7PM                             $3.50 SKYY All Flavors               $4 Bombs                         (Vegas, Tuca, Cherry, Jager)</t>
-  </si>
-  <si>
-    <t>3PM-7PM                               $3.50 Texas Beer (Draft &amp; Bottle), Texas Liquors               All Deep Eddy's Favors                           Zodiac, Titos, Rebecca Creek</t>
-  </si>
-  <si>
-    <t>ALL DAY                                    $6 Domestic Pitchers                             $4 Crown &amp; Orange Crushes              $3.75 All Import Drafts                      $2.75 Fireball</t>
-  </si>
-  <si>
-    <t>Sun- Sat 11AM-12AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL DAY                                    $4 Breakfast Shots, Bloody Mary's Orange Crushes                     $3 Select Shots                                         $10 Domestic Buckets                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3PM-7PM Mon-Fri                      $2 Domestic Drafts, Wells                                                                  $10 Domestic Pitchers                  $3.75 Select Texas Premium Liquors     (Titos, Rebecca Creek, Reg &amp; Black Cherry Zodiac Vodka, All Deep Eddy's Flavors)                  </t>
-  </si>
-  <si>
-    <t>Sun-Thur 11AM-10PM          Fri-Sat 11AM-10:30PM</t>
-  </si>
-  <si>
-    <t>Tue-Sat 8PM-2AM</t>
-  </si>
-  <si>
-    <t>Sun 11AM-4PM                        Mon-Thur 11AM-9AM                 Fri-Sat    11AM-10PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.50 OFF                                          All Tall &amp; Pint Draft Beer, Wine by the Glass,  Mixed Drinks (Jack Daniel's, Captain Morgan, Absolut),                 House Margarita                                 </t>
-  </si>
-  <si>
-    <t>Sun-Thur 8PM-2AM                           Fri-Sat 7PM-2AM</t>
-  </si>
-  <si>
-    <t>$3 sm Margarita                               $5 lg Margarita                                 $2 Domestic Beer                             $3 Imported Beer                                  **Call to Confirm**</t>
-  </si>
-  <si>
-    <t>ALL NIGHT                                $0.25 Wells and Draft</t>
-  </si>
-  <si>
-    <t>ALL NIGHT                                          $1.50 Wells/Domestic Longnecks                                               $250 You-Call-Its</t>
-  </si>
-  <si>
-    <t>ALL NIGHT                          $1.75 Domestic Longnecks                                                     8PM-11PM                               $0.50 Wells/Drafts</t>
-  </si>
-  <si>
-    <t>8PM-11PM                             $1.00 Wells/Dom Longnecks                                           $3.00 You-Call-Its</t>
-  </si>
-  <si>
-    <t>ALL NIGHT                                 $1.00 Wells/Drafts                           $1.50 Dom longnecks</t>
-  </si>
-  <si>
-    <t>ALL NIGHT                                First Drink reg price,              2nd Drink $3 OFF                          (as low as $1)                                          $3.75 Shots</t>
-  </si>
-  <si>
-    <t>**Special Vary on Events**</t>
-  </si>
-  <si>
-    <t>**Specials Vary Daily**                                                               **Check Twitter for Updates**</t>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(936) 295-8131      1548 11th St, Huntsville, TX 77340</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shenanigans                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(936)  438-8300      1548 11th St, Huntsville, TX 77340</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Carbonero Rotisserie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      (936) 294-0078           1524 11th St A, Huntsville, TX 77340</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -778,7 +858,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -788,9 +868,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -815,29 +892,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1117,7 +1191,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1125,49 +1199,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
     <col min="2" max="3" width="26.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="26.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31" style="10" customWidth="1"/>
+    <col min="9" max="9" width="31" style="9" customWidth="1"/>
     <col min="10" max="10" width="23.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -1191,7 +1265,7 @@
       <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1199,31 +1273,31 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -1231,27 +1305,27 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="10" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1259,29 +1333,29 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -1289,17 +1363,17 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="10" t="s">
+      <c r="A7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -1307,27 +1381,27 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="10" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="9" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -1335,17 +1409,17 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -1353,373 +1427,352 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="20" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A23" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/HvilleHappyHours.xlsx
+++ b/HvilleHappyHours.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
   <si>
     <t>HAPPY HOUR LIST</t>
   </si>
@@ -74,29 +74,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (936)295-9375 123 I-45N Huntsville, TX 77320</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1836 Steakhouse &amp; Grill</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (936)755-8150 2641 11th Street Huntsville, TX 77340</t>
     </r>
   </si>
   <si>
@@ -416,6 +393,162 @@
     <t>Sun-Tues 11AM-11PM Weds-Sat 11AM- 12AM</t>
   </si>
   <si>
+    <t>Sun 11AM-12AM           Mon-Thur 11AM-1AM      Fri-Sat 11AM-2AM</t>
+  </si>
+  <si>
+    <t>3PM-6PM 9PM-Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3PM-9PM                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3PM-10PM                          </t>
+  </si>
+  <si>
+    <t>1PM-7PM</t>
+  </si>
+  <si>
+    <t>Varies Everyday based on excess</t>
+  </si>
+  <si>
+    <t>ALL Day                                        $4.75 Big Beers                     $4.25 Frozen Margaritas,   Purple Hooters                          $9 Buckets of 4 cans</t>
+  </si>
+  <si>
+    <t>ALL Day                                        $2.25 Cans                                $9 Buckets of 4 cans</t>
+  </si>
+  <si>
+    <t>ALL Day                                        $3 Dos Equis, Corona                                $9 Buckets of 4 cans</t>
+  </si>
+  <si>
+    <t>ALL DAY                               $3.25 Bloody Mary, Ice Picks</t>
+  </si>
+  <si>
+    <t>**Food Varies Daily</t>
+  </si>
+  <si>
+    <t>Sun-Thur 11AM-12AM          Fri-Sat 11AM-2AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3PM-6PM 9PM-1AM                  -$1.50 </t>
+  </si>
+  <si>
+    <t>3PM-6PM 9PM-1AM</t>
+  </si>
+  <si>
+    <t>2PM-7PM                             $3.50 12oz Mango &amp; Strawberry Margarita</t>
+  </si>
+  <si>
+    <t>2PM-7PM                                  $3 Lg Draft Bud light,               Miller light                                       $3.50 Michelob Ultra,            Dos Equis</t>
+  </si>
+  <si>
+    <t>2PM-7PM                                      $2.50 12oz House Margarita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2PM-7PM                                        $5.00 14oz Bandera Margarita, American Flag                                    $3.50 12oz Strawberry, Mango, Banana, Peach </t>
+  </si>
+  <si>
+    <t>2PM-7PM                                     $6 Lg Mango, Strawberry, Banana, Peach Margaritas</t>
+  </si>
+  <si>
+    <t>Sun-Thur 11AM-10PM          Fri-Sat 11AM-11PM</t>
+  </si>
+  <si>
+    <t>$6 Pitcher of Miller Lite,                     Tecate Light, Bud Light                                   **Specials Subject To Change**</t>
+  </si>
+  <si>
+    <t>Sun 7AM-3PM                             Mon-Fri 6AM-3PM                 Sat 7AM-3PM</t>
+  </si>
+  <si>
+    <t>ALL DAY                                    $3 Select Shots</t>
+  </si>
+  <si>
+    <t>3PM-7PM                                  $3 Corona, Dos Equis                           $4 Top Shelf Tequila          (Milagro, Altos, Cuervo)                $4 16oz Blue Lagoon,               Golden Fox on the Rocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3PM-7PM                                $10 Domestic Buckets                               $3 (Premium Whiskeys) Jack Daniels Old No. 7, Fire, Honey                                          </t>
+  </si>
+  <si>
+    <t>3PM-7PM                             $3.50 SKYY All Flavors               $4 Bombs                         (Vegas, Tuca, Cherry, Jager)</t>
+  </si>
+  <si>
+    <t>3PM-7PM                               $3.50 Texas Beer (Draft &amp; Bottle), Texas Liquors               All Deep Eddy's Favors                           Zodiac, Titos, Rebecca Creek</t>
+  </si>
+  <si>
+    <t>ALL DAY                                    $6 Domestic Pitchers                             $4 Crown &amp; Orange Crushes              $3.75 All Import Drafts                      $2.75 Fireball</t>
+  </si>
+  <si>
+    <t>Sun- Sat 11AM-12AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL DAY                                    $4 Breakfast Shots, Bloody Mary's Orange Crushes                     $3 Select Shots                                         $10 Domestic Buckets                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3PM-7PM Mon-Fri                      $2 Domestic Drafts, Wells                                                                  $10 Domestic Pitchers                  $3.75 Select Texas Premium Liquors     (Titos, Rebecca Creek, Reg &amp; Black Cherry Zodiac Vodka, All Deep Eddy's Flavors)                  </t>
+  </si>
+  <si>
+    <t>Sun-Thur 11AM-10PM          Fri-Sat 11AM-10:30PM</t>
+  </si>
+  <si>
+    <t>Tue-Sat 8PM-2AM</t>
+  </si>
+  <si>
+    <t>Sun 11AM-4PM                        Mon-Thur 11AM-9AM                 Fri-Sat    11AM-10PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$1.50 OFF                                          All Tall &amp; Pint Draft Beer, Wine by the Glass,  Mixed Drinks (Jack Daniel's, Captain Morgan, Absolut),                 House Margarita                                 </t>
+  </si>
+  <si>
+    <t>Sun-Thur 8PM-2AM                           Fri-Sat 7PM-2AM</t>
+  </si>
+  <si>
+    <t>$3 sm Margarita                               $5 lg Margarita                                 $2 Domestic Beer                             $3 Imported Beer                                  **Call to Confirm**</t>
+  </si>
+  <si>
+    <t>ALL NIGHT                                $0.25 Wells and Draft</t>
+  </si>
+  <si>
+    <t>ALL NIGHT                                          $1.50 Wells/Domestic Longnecks                                               $250 You-Call-Its</t>
+  </si>
+  <si>
+    <t>ALL NIGHT                          $1.75 Domestic Longnecks                                                     8PM-11PM                               $0.50 Wells/Drafts</t>
+  </si>
+  <si>
+    <t>8PM-11PM                             $1.00 Wells/Dom Longnecks                                           $3.00 You-Call-Its</t>
+  </si>
+  <si>
+    <t>ALL NIGHT                                 $1.00 Wells/Drafts                           $1.50 Dom longnecks</t>
+  </si>
+  <si>
+    <t>ALL NIGHT                                First Drink reg price,              2nd Drink $3 OFF                          (as low as $1)                                          $3.75 Shots</t>
+  </si>
+  <si>
+    <t>**Special Vary on Events**</t>
+  </si>
+  <si>
+    <t>**Specials Vary Daily**                                                               **Check Twitter for Updates**</t>
+  </si>
+  <si>
+    <t>Zach's Bar and Grill     (936)295-0938       2707 Sam Houston Ave,Huntsville, TX 77340</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Buffalo Wild Wings           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(936) 291-0390        203 I-45, Huntsville, TX 77340</t>
+    </r>
+  </si>
+  <si>
+    <t>Margarita's                  (936) 293-8966        630 N Fwy Service Rd,   Huntsville TX 77340</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -425,7 +558,107 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Time Out Karaoke</t>
+      <t>Jolly Fox Club</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                      (936) 293-1411       2504 Sam Houston Ave,    Huntsville, TX 77340</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Los Pericos  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(936) 295-8131      1548 11th St, Huntsville, TX 77340</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shenanigans                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(936)  438-8300      1548 11th St, Huntsville, TX 77340</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Carbonero Rotisserie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      (936) 294-0078           1524 11th St A, Huntsville, TX 77340</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time Out Karaoke     (936) 439-9228      Americas Best Value Inn, 613 N FWY Service Rd, Huntsville, TX 77340</t>
     </r>
     <r>
       <rPr>
@@ -439,266 +672,10 @@
     </r>
   </si>
   <si>
-    <t>Sun 11AM-12AM           Mon-Thur 11AM-1AM      Fri-Sat 11AM-2AM</t>
-  </si>
-  <si>
-    <t>3PM-6PM 9PM-Close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3PM-9PM                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3PM-10PM                          </t>
-  </si>
-  <si>
-    <t>1PM-7PM</t>
-  </si>
-  <si>
-    <t>Varies Everyday based on excess</t>
-  </si>
-  <si>
-    <t>ALL Day                                        $4.75 Big Beers                     $4.25 Frozen Margaritas,   Purple Hooters                          $9 Buckets of 4 cans</t>
-  </si>
-  <si>
-    <t>ALL Day                                        $2.25 Cans                                $9 Buckets of 4 cans</t>
-  </si>
-  <si>
-    <t>ALL Day                                        $3 Dos Equis, Corona                                $9 Buckets of 4 cans</t>
-  </si>
-  <si>
-    <t>ALL DAY                               $3.25 Bloody Mary, Ice Picks</t>
-  </si>
-  <si>
-    <t>**Food Varies Daily</t>
-  </si>
-  <si>
-    <t>Sun-Thur 11AM-12AM          Fri-Sat 11AM-2AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3PM-6PM 9PM-1AM                  -$1.50 </t>
-  </si>
-  <si>
-    <t>3PM-6PM 9PM-1AM</t>
-  </si>
-  <si>
-    <t>2PM-7PM                             $3.50 12oz Mango &amp; Strawberry Margarita</t>
-  </si>
-  <si>
-    <t>2PM-7PM                                  $3 Lg Draft Bud light,               Miller light                                       $3.50 Michelob Ultra,            Dos Equis</t>
-  </si>
-  <si>
-    <t>2PM-7PM                                      $2.50 12oz House Margarita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2PM-7PM                                        $5.00 14oz Bandera Margarita, American Flag                                    $3.50 12oz Strawberry, Mango, Banana, Peach </t>
-  </si>
-  <si>
-    <t>2PM-7PM                                     $6 Lg Mango, Strawberry, Banana, Peach Margaritas</t>
-  </si>
-  <si>
-    <t>Sun-Thur 11AM-10PM          Fri-Sat 11AM-11PM</t>
-  </si>
-  <si>
-    <t>$6 Pitcher of Miller Lite,                     Tecate Light, Bud Light                                   **Specials Subject To Change**</t>
-  </si>
-  <si>
-    <t>Sun 7AM-3PM                             Mon-Fri 6AM-3PM                 Sat 7AM-3PM</t>
-  </si>
-  <si>
-    <t>ALL DAY                                    $3 Select Shots</t>
-  </si>
-  <si>
-    <t>3PM-7PM                                  $3 Corona, Dos Equis                           $4 Top Shelf Tequila          (Milagro, Altos, Cuervo)                $4 16oz Blue Lagoon,               Golden Fox on the Rocks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3PM-7PM                                $10 Domestic Buckets                               $3 (Premium Whiskeys) Jack Daniels Old No. 7, Fire, Honey                                          </t>
-  </si>
-  <si>
-    <t>3PM-7PM                             $3.50 SKYY All Flavors               $4 Bombs                         (Vegas, Tuca, Cherry, Jager)</t>
-  </si>
-  <si>
-    <t>3PM-7PM                               $3.50 Texas Beer (Draft &amp; Bottle), Texas Liquors               All Deep Eddy's Favors                           Zodiac, Titos, Rebecca Creek</t>
-  </si>
-  <si>
-    <t>ALL DAY                                    $6 Domestic Pitchers                             $4 Crown &amp; Orange Crushes              $3.75 All Import Drafts                      $2.75 Fireball</t>
-  </si>
-  <si>
-    <t>Sun- Sat 11AM-12AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL DAY                                    $4 Breakfast Shots, Bloody Mary's Orange Crushes                     $3 Select Shots                                         $10 Domestic Buckets                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3PM-7PM Mon-Fri                      $2 Domestic Drafts, Wells                                                                  $10 Domestic Pitchers                  $3.75 Select Texas Premium Liquors     (Titos, Rebecca Creek, Reg &amp; Black Cherry Zodiac Vodka, All Deep Eddy's Flavors)                  </t>
-  </si>
-  <si>
-    <t>Sun-Thur 11AM-10PM          Fri-Sat 11AM-10:30PM</t>
-  </si>
-  <si>
-    <t>Tue-Sat 8PM-2AM</t>
-  </si>
-  <si>
-    <t>Sun 11AM-4PM                        Mon-Thur 11AM-9AM                 Fri-Sat    11AM-10PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$1.50 OFF                                          All Tall &amp; Pint Draft Beer, Wine by the Glass,  Mixed Drinks (Jack Daniel's, Captain Morgan, Absolut),                 House Margarita                                 </t>
-  </si>
-  <si>
-    <t>Sun-Thur 8PM-2AM                           Fri-Sat 7PM-2AM</t>
-  </si>
-  <si>
-    <t>$3 sm Margarita                               $5 lg Margarita                                 $2 Domestic Beer                             $3 Imported Beer                                  **Call to Confirm**</t>
-  </si>
-  <si>
-    <t>ALL NIGHT                                $0.25 Wells and Draft</t>
-  </si>
-  <si>
-    <t>ALL NIGHT                                          $1.50 Wells/Domestic Longnecks                                               $250 You-Call-Its</t>
-  </si>
-  <si>
-    <t>ALL NIGHT                          $1.75 Domestic Longnecks                                                     8PM-11PM                               $0.50 Wells/Drafts</t>
-  </si>
-  <si>
-    <t>8PM-11PM                             $1.00 Wells/Dom Longnecks                                           $3.00 You-Call-Its</t>
-  </si>
-  <si>
-    <t>ALL NIGHT                                 $1.00 Wells/Drafts                           $1.50 Dom longnecks</t>
-  </si>
-  <si>
-    <t>ALL NIGHT                                First Drink reg price,              2nd Drink $3 OFF                          (as low as $1)                                          $3.75 Shots</t>
-  </si>
-  <si>
-    <t>**Special Vary on Events**</t>
-  </si>
-  <si>
-    <t>**Specials Vary Daily**                                                               **Check Twitter for Updates**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toasted                  1932 Sam Houston          Ave, Huntsvile, TX 77340    </t>
-  </si>
-  <si>
-    <t>Humphrey's                   1930 Sam Houston Ave, Huntsville, TX 77340</t>
-  </si>
-  <si>
-    <t>Zach's Bar and Grill     (936)295-0938       2707 Sam Houston Ave,Huntsville, TX 77340</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Buffalo Wild Wings           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(936) 291-0390        203 I-45, Huntsville, TX 77340</t>
-    </r>
-  </si>
-  <si>
-    <t>Margarita's                  (936) 293-8966        630 N Fwy Service Rd,   Huntsville TX 77340</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Jolly Fox Club</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                      (936) 293-1411       2504 Sam Houston Ave,    Huntsville, TX 77340</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Los Pericos  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(936) 295-8131      1548 11th St, Huntsville, TX 77340</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Shenanigans                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(936)  438-8300      1548 11th St, Huntsville, TX 77340</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Carbonero Rotisserie </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      (936) 294-0078           1524 11th St A, Huntsville, TX 77340</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
+    <t>Humphrey's           (936) 439-0664          1930 Sam Houston Ave, Huntsville, TX 77340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toasted                      (936) 439-4842                 1932 Sam Houston          Ave, Huntsvile, TX 77340    </t>
   </si>
 </sst>
 </file>
@@ -895,9 +872,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -913,6 +887,9 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent6" xfId="5" builtinId="50"/>
@@ -923,8 +900,36 @@
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1191,7 +1196,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1199,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,30 +1223,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -1266,18 +1271,18 @@
         <v>7</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>9</v>
@@ -1298,15 +1303,15 @@
         <v>10</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
@@ -1326,10 +1331,10 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -1337,34 +1342,34 @@
         <v>11</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1374,42 +1379,42 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="12"/>
@@ -1420,359 +1425,341 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="9" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="13" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="J16" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="9" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="J21" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1781,7 +1768,7 @@
   <dataValidations count="1">
     <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
       <formula1>A4</formula1>
-      <formula2>A18</formula2>
+      <formula2>A17</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
